--- a/Model/Hasil_Testbench.xlsx
+++ b/Model/Hasil_Testbench.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Falih\VLSI\UAS_VLSI_LEVEL1-OKINAWA\Model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Okinawa\UAS_VLSI_LEVEL1-OKINAWA\Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D672AD6-F486-4EDA-B02C-AF194DBB4A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F55ED5-6560-4314-BBCD-EEA9F6E80C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{BC1E68C2-0043-4054-A1D8-E8690D7E9366}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BC1E68C2-0043-4054-A1D8-E8690D7E9366}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,12 +27,162 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>[1,0] cross</t>
+  </si>
+  <si>
+    <t>[0,1] circle</t>
+  </si>
+  <si>
+    <t>[1,0] circle</t>
+  </si>
+  <si>
+    <t>Hex Keluaran Gen</t>
+  </si>
+  <si>
+    <t>Konversi Keluaran Generator</t>
+  </si>
+  <si>
+    <t>00FA13C3</t>
+  </si>
+  <si>
+    <t>00FA5033</t>
+  </si>
+  <si>
+    <t>00FA089D</t>
+  </si>
+  <si>
+    <t>00FA64CD</t>
+  </si>
+  <si>
+    <t>FF0597D1</t>
+  </si>
+  <si>
+    <t>00FA8D02</t>
+  </si>
+  <si>
+    <t>00FA65C1</t>
+  </si>
+  <si>
+    <t>00FAB650</t>
+  </si>
+  <si>
+    <t>00FA67C4</t>
+  </si>
+  <si>
+    <t>00FA0691</t>
+  </si>
+  <si>
+    <t>00FA3A1D</t>
+  </si>
+  <si>
+    <t>00F9FD50</t>
+  </si>
+  <si>
+    <t>00FA6BEB</t>
+  </si>
+  <si>
+    <t>FF059235</t>
+  </si>
+  <si>
+    <t>00FA98AE</t>
+  </si>
+  <si>
+    <t>00FA4D5D</t>
+  </si>
+  <si>
+    <t>00FAC8FB</t>
+  </si>
+  <si>
+    <t>00FA7CA7</t>
+  </si>
+  <si>
+    <t>[0,1] cross</t>
+  </si>
+  <si>
+    <t>FF05BB2E</t>
+  </si>
+  <si>
+    <t>00FAC75F</t>
+  </si>
+  <si>
+    <t>FF05AA0E</t>
+  </si>
+  <si>
+    <t>00FAA41F</t>
+  </si>
+  <si>
+    <t>00FA6D0A</t>
+  </si>
+  <si>
+    <t>00FA8DF0</t>
+  </si>
+  <si>
+    <t>FF05B968</t>
+  </si>
+  <si>
+    <t>00FA5171</t>
+  </si>
+  <si>
+    <t>FF0533C0</t>
+  </si>
+  <si>
+    <t>FF05AFFE</t>
+  </si>
+  <si>
+    <t>00FAD3F0</t>
+  </si>
+  <si>
+    <t>FF058AAC</t>
+  </si>
+  <si>
+    <t>00FAA69A</t>
+  </si>
+  <si>
+    <t>00FA8888</t>
+  </si>
+  <si>
+    <t>00FA8BE2</t>
+  </si>
+  <si>
+    <t>FF05A2C4</t>
+  </si>
+  <si>
+    <t>00FA6233</t>
+  </si>
+  <si>
+    <t>FF0525F1</t>
+  </si>
+  <si>
+    <t>Hex Keluaran Disc</t>
+  </si>
+  <si>
+    <t>Konversi Keluaran Discrimi</t>
+  </si>
+  <si>
+    <t>0079A651</t>
+  </si>
+  <si>
+    <t>0079A278</t>
+  </si>
+  <si>
+    <t>00786BBB</t>
+  </si>
+  <si>
+    <t>00789CC8</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -66,8 +216,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,12 +557,617 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FA87EEA-E4D3-4B3E-B4DC-756884BB361D}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:W21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:O10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="I1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="2"/>
+      <c r="K1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="1"/>
+      <c r="Q1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W1" s="1"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="I2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="1"/>
+      <c r="Q2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="W2" s="2"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="I3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="Q3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="W3" s="2"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="I4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="I5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="I6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="Q6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W6" s="1"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="I7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="Q7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="W7" s="2"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="I8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="Q8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="W8" s="2"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="I9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="I10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="I12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="2"/>
+      <c r="K12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="I13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" s="2"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="I14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J14" s="2"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="I15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J15" s="3"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="I16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J16" s="3"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="I17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J17" s="3"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="I18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J18" s="3"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="I19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J19" s="3"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="I20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J20" s="3"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="I21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J21" s="3"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="106">
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:G21"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="F2:G10"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="N13:O21"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="N2:O10"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C2:E2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Model/Hasil_Testbench.xlsx
+++ b/Model/Hasil_Testbench.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Okinawa\UAS_VLSI_LEVEL1-OKINAWA\Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F55ED5-6560-4314-BBCD-EEA9F6E80C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902D60CB-CAF7-4076-84D7-2B19367DC4EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BC1E68C2-0043-4054-A1D8-E8690D7E9366}"/>
   </bookViews>
@@ -216,8 +216,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -559,17 +562,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FA87EEA-E4D3-4B3E-B4DC-756884BB361D}">
   <dimension ref="A1:W21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:O10"/>
+    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="3"/>
       <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
@@ -579,10 +582,10 @@
         <v>0</v>
       </c>
       <c r="G1" s="1"/>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="2"/>
+      <c r="J1" s="3"/>
       <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
@@ -607,128 +610,138 @@
       <c r="W1" s="1"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="1"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="1">
+        <v>-0.97761261463165205</v>
+      </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="1"/>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
       <c r="N2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="O2" s="1"/>
-      <c r="Q2" s="2" t="s">
+      <c r="Q2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2" t="s">
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="W2" s="2"/>
+      <c r="W2" s="3"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="1"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="1">
+        <v>0.97960466146469105</v>
+      </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
-      <c r="Q3" s="2" t="s">
+      <c r="Q3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2" t="s">
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W3" s="2"/>
+      <c r="W3" s="3"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="1"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="1">
+        <v>-0.97787392139434803</v>
+      </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="1"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="1">
+        <v>0.97906678915023804</v>
+      </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="1"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="1">
+        <v>0.97822630405426003</v>
+      </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="Q6" s="1" t="s">
@@ -746,112 +759,125 @@
       <c r="W6" s="1"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="1"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="1">
+        <v>0.97872829437255804</v>
+      </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
-      <c r="Q7" s="2" t="s">
+      <c r="Q7" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2" t="s">
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W7" s="2"/>
+      <c r="W7" s="3"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="1"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="1">
+        <v>-0.97763967514037997</v>
+      </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
-      <c r="Q8" s="2" t="s">
+      <c r="Q8" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2" t="s">
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="W8" s="2"/>
+      <c r="W8" s="3"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="1"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="1">
+        <v>0.97780519723892201</v>
+      </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="3"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="1"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="1">
+        <v>-0.97967910766601496</v>
+      </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="3"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="3"/>
       <c r="C12" s="1" t="s">
         <v>5</v>
       </c>
@@ -861,10 +887,10 @@
         <v>0</v>
       </c>
       <c r="G12" s="1"/>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="2"/>
+      <c r="J12" s="3"/>
       <c r="K12" s="1" t="s">
         <v>5</v>
       </c>
@@ -876,191 +902,209 @@
       <c r="O12" s="1"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="1"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="1">
+        <v>-0.977783322334289</v>
+      </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G13" s="1"/>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J13" s="2"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
       <c r="N13" s="1" t="s">
         <v>1</v>
       </c>
       <c r="O13" s="1"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="1"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="1">
+        <v>0.97979640960693304</v>
+      </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="J14" s="2"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="1"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="1">
+        <v>-0.97835278511047297</v>
+      </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="I15" s="3" t="s">
+      <c r="I15" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="J15" s="3"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="1"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="1">
+        <v>0.97910463809966997</v>
+      </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="I16" s="3" t="s">
+      <c r="I16" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="J16" s="3"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="1"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="1">
+        <v>0.97864580154418901</v>
+      </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="I17" s="3" t="s">
+      <c r="I17" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="J17" s="3"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="1"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="1">
+        <v>0.97869694232940596</v>
+      </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="I18" s="3" t="s">
+      <c r="I18" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="J18" s="3"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="1"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="1">
+        <v>-0.97798514366149902</v>
+      </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="I19" s="3" t="s">
+      <c r="I19" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J19" s="3"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="1"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="1">
+        <v>0.97806090116500799</v>
+      </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-      <c r="I20" s="3" t="s">
+      <c r="I20" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J20" s="3"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="1"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="1">
+        <v>-0.97988981008529596</v>
+      </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="I21" s="3" t="s">
+      <c r="I21" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="J21" s="3"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="106">
+  <mergeCells count="89">
     <mergeCell ref="V2:W2"/>
     <mergeCell ref="V3:W3"/>
     <mergeCell ref="V6:W6"/>
@@ -1109,14 +1153,10 @@
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:M8"/>
     <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:M9"/>
     <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:M10"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:M2"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="I5:J5"/>
@@ -1127,9 +1167,7 @@
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:M6"/>
     <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:M7"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
@@ -1137,37 +1175,27 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="F2:G10"/>
-    <mergeCell ref="K21:M21"/>
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="K18:M18"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="I17:J17"/>
     <mergeCell ref="A18:B18"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="K16:M16"/>
     <mergeCell ref="N12:O12"/>
-    <mergeCell ref="K13:M13"/>
     <mergeCell ref="N13:O21"/>
-    <mergeCell ref="K14:M14"/>
     <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="N2:O10"/>
     <mergeCell ref="C3:E3"/>
-    <mergeCell ref="K3:M3"/>
     <mergeCell ref="C4:E4"/>
-    <mergeCell ref="K4:M4"/>
     <mergeCell ref="C5:E5"/>
-    <mergeCell ref="K5:M5"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C2:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Model/Hasil_Testbench.xlsx
+++ b/Model/Hasil_Testbench.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Okinawa\UAS_VLSI_LEVEL1-OKINAWA\Model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Falih\VLSI\UAS_VLSI_LEVEL1-OKINAWA\Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902D60CB-CAF7-4076-84D7-2B19367DC4EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E19D802-04E4-4E75-904B-F2C229F5D79A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BC1E68C2-0043-4054-A1D8-E8690D7E9366}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{BC1E68C2-0043-4054-A1D8-E8690D7E9366}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Perbandingan_Data" sheetId="2" r:id="rId1"/>
+    <sheet name="Hasil_Data" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="55">
   <si>
     <t>Input</t>
   </si>
@@ -181,6 +182,24 @@
   </si>
   <si>
     <t>00789CC8</t>
+  </si>
+  <si>
+    <t>Perbandingan data (xfake keluaran generator)</t>
+  </si>
+  <si>
+    <t>Error (%)</t>
+  </si>
+  <si>
+    <t>Hardware</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>Perbandingan data (keluaran discriminator)</t>
+  </si>
+  <si>
+    <t>Error(%)</t>
   </si>
 </sst>
 </file>
@@ -216,16 +235,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -559,641 +583,1245 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FA87EEA-E4D3-4B3E-B4DC-756884BB361D}">
-  <dimension ref="A1:W21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA1A6820-1F16-48A7-9BF6-A465BE183A72}">
+  <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="89" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.54296875" customWidth="1"/>
+    <col min="2" max="2" width="15.6328125" customWidth="1"/>
+    <col min="3" max="3" width="17.26953125" customWidth="1"/>
+    <col min="8" max="10" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.36328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" s="4">
+        <f>ABS((C3-B3)*100/C3)</f>
+        <v>2.7822665893749029E-3</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.97686403989791804</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.97689121961593595</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" s="4">
+        <f>ABS((C4-B4)*100/C4)</f>
+        <v>3.3770017040902294E-3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.97778624296188299</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.977819263935089</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="H4" s="4">
+        <f>ABS((J4-I4)*100/J4)</f>
+        <v>0.9182291277366218</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0.47519403696060097</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0.47087036808694599</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" s="4">
+        <f>ABS((C5-B5)*100/C5)</f>
+        <v>2.9353097997888425E-3</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.97669392824172896</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.97672259807586703</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="H5" s="4">
+        <f>ABS((J5-I5)*100/J5)</f>
+        <v>0.92619806928547832</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0.47513532638549799</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0.470775017264912</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" s="4">
+        <f>ABS((C6-B6)*100/C6)</f>
+        <v>4.1254120384877331E-3</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.97810059785842896</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.97814095020294201</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="H6" s="4">
+        <f>ABS((J6-I6)*100/J6)</f>
+        <v>0.69513367261435921</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0.47039383649826</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0.467146543573427</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" s="4">
+        <f>ABS((C7-B7)*100/C7)</f>
+        <v>3.1755828684065381E-2</v>
+      </c>
+      <c r="B7" s="4">
+        <v>-0.978152215480804</v>
+      </c>
+      <c r="C7" s="4">
+        <v>-0.978462934494019</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="H7" s="4">
+        <f>ABS((J7-I7)*100/J7)</f>
+        <v>0.80103071274946891</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0.47114229202270502</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0.46739828818349</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" s="4">
+        <f>ABS((C8-B8)*100/C8)</f>
+        <v>5.1702255661285083E-3</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.97871410846710205</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.97876471281051602</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="H8" s="4">
+        <f>AVERAGE(H4:H7)</f>
+        <v>0.83514789559648195</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" s="4">
+        <f>ABS((C9-B9)*100/C9)</f>
+        <v>3.3149320076481248E-3</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0.97811514139175404</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.97814756631851196</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="4">
+        <f>ABS((C10-B10)*100/C10)</f>
+        <v>5.2277538836651158E-3</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.97934436798095703</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.97939556837081898</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" s="4">
+        <f>ABS((C11-B11)*100/C11)</f>
+        <v>0.11951087373462976</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0.97934436798095703</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.97817534208297696</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" s="4">
+        <f>ABS((C12-B12)*100/C12)</f>
+        <v>3.0208390292141706E-3</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0.97666269540786699</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.97669219970703103</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" s="4">
+        <f>ABS((C13-B13)*100/C13)</f>
+        <v>3.2927999818757304E-3</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0.97744923830032304</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.97748142480850198</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" s="4">
+        <f>ABS((C14-B14)*100/C14)</f>
+        <v>3.4668222668214929E-3</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0.97652149200439398</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.97655534744262695</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" s="4">
+        <f>ABS((C15-B15)*100/C15)</f>
+        <v>5.3130239338508925E-3</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0.97820919752120905</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0.97826117277145397</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" s="4">
+        <f>ABS((C16-B16)*100/C16)</f>
+        <v>1.4718673214026241E-2</v>
+      </c>
+      <c r="B16" s="4">
+        <v>-0.97823780775070102</v>
+      </c>
+      <c r="C16" s="4">
+        <v>-0.97838181257247903</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A17" s="4">
+        <f>ABS((C17-B17)*100/C17)</f>
+        <v>6.4173831933433114E-3</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0.97889220714569003</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0.97895503044128396</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A18" s="4">
+        <f>ABS((C18-B18)*100/C18)</f>
+        <v>2.9992141693686311E-3</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0.97774296998977595</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0.97777229547500599</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A19" s="4">
+        <f>ABS((C19-B19)*100/C19)</f>
+        <v>6.8079897448530217E-3</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0.97962921857833796</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0.97969591617584195</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A20" s="4">
+        <f>ABS((C20-B20)*100/C20)</f>
+        <v>5.8598248277854162E-3</v>
+      </c>
+      <c r="B20" s="4">
+        <v>0.97846454381942705</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0.97852188348770097</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A21" s="4">
+        <f>ABS((C21-B21)*100/C21)</f>
+        <v>2.0477121180605566E-2</v>
+      </c>
+      <c r="B21" s="4">
+        <v>-0.97761261463165205</v>
+      </c>
+      <c r="C21" s="4">
+        <v>-0.97781284255234102</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A22" s="4">
+        <f>ABS((C22-B22)*100/C22)</f>
+        <v>2.8899382444319967E-2</v>
+      </c>
+      <c r="B22" s="4">
+        <v>0.97960466146469105</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0.97988784299996501</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A23" s="4">
+        <f>ABS((C23-B23)*100/C23)</f>
+        <v>1.1996887154237097E-2</v>
+      </c>
+      <c r="B23" s="4">
+        <v>-0.97787392139434803</v>
+      </c>
+      <c r="C23" s="4">
+        <v>-0.97799124990097697</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A24" s="4">
+        <f>ABS((C24-B24)*100/C24)</f>
+        <v>2.3546588354356884E-2</v>
+      </c>
+      <c r="B24" s="4">
+        <v>0.97906678915023804</v>
+      </c>
+      <c r="C24" s="4">
+        <v>0.97929738027313595</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A25" s="4">
+        <f>ABS((C25-B25)*100/C25)</f>
+        <v>2.6756420578139432E-2</v>
+      </c>
+      <c r="B25" s="4">
+        <v>0.97822630405426003</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0.97848811244893397</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A26" s="4">
+        <f>ABS((C26-B26)*100/C26)</f>
+        <v>2.0594499386885966E-2</v>
+      </c>
+      <c r="B26" s="4">
+        <v>0.97872829437255804</v>
+      </c>
+      <c r="C26" s="4">
+        <v>0.97892990008482905</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A27" s="4">
+        <f>ABS((C27-B27)*100/C27)</f>
+        <v>2.242941415372111E-2</v>
+      </c>
+      <c r="B27" s="4">
+        <v>-0.97763967514037997</v>
+      </c>
+      <c r="C27" s="4">
+        <v>-0.97785900318604402</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="L27" s="2"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A28" s="4">
+        <f>ABS((C28-B28)*100/C28)</f>
+        <v>2.2502787851101994E-2</v>
+      </c>
+      <c r="B28" s="4">
+        <v>0.97780519723892201</v>
+      </c>
+      <c r="C28" s="4">
+        <v>0.97802528019285395</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="L28" s="2"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A29" s="4">
+        <f>ABS((C29-B29)*100/C29)</f>
+        <v>1.2093540328238901E-2</v>
+      </c>
+      <c r="B29" s="4">
+        <v>-0.97967910766601496</v>
+      </c>
+      <c r="C29" s="4">
+        <v>-0.97979759988389203</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="L29" s="2"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A30" s="4">
+        <f>ABS((C30-B30)*100/C30)</f>
+        <v>5.3698493291368266E-3</v>
+      </c>
+      <c r="B30" s="4">
+        <v>-0.977783322334289</v>
+      </c>
+      <c r="C30" s="4">
+        <v>-0.97783583064508095</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="L30" s="2"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A31" s="4">
+        <f>ABS((C31-B31)*100/C31)</f>
+        <v>1.265949089708179E-2</v>
+      </c>
+      <c r="B31" s="4">
+        <v>0.97979640960693304</v>
+      </c>
+      <c r="C31" s="4">
+        <v>0.97992046254868803</v>
+      </c>
+      <c r="D31" s="5"/>
+      <c r="L31" s="2"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A32" s="4">
+        <f>ABS((C32-B32)*100/C32)</f>
+        <v>3.858002666725277E-5</v>
+      </c>
+      <c r="B32" s="4">
+        <v>-0.97835278511047297</v>
+      </c>
+      <c r="C32" s="4">
+        <v>-0.97835316255938398</v>
+      </c>
+      <c r="D32" s="5"/>
+      <c r="L32" s="2"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A33" s="4">
+        <f>ABS((C33-B33)*100/C33)</f>
+        <v>4.8402093314820586E-3</v>
+      </c>
+      <c r="B33" s="4">
+        <v>0.97910463809966997</v>
+      </c>
+      <c r="C33" s="4">
+        <v>0.97915203110764903</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="L33" s="2"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A34" s="4">
+        <f>ABS((C34-B34)*100/C34)</f>
+        <v>6.6502724262927472E-3</v>
+      </c>
+      <c r="B34" s="4">
+        <v>0.97864580154418901</v>
+      </c>
+      <c r="C34" s="4">
+        <v>0.97871088848453902</v>
+      </c>
+      <c r="D34" s="5"/>
+      <c r="L34" s="2"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A35" s="4">
+        <f>ABS((C35-B35)*100/C35)</f>
+        <v>4.3980759853709337E-3</v>
+      </c>
+      <c r="B35" s="4">
+        <v>0.97869694232940596</v>
+      </c>
+      <c r="C35" s="4">
+        <v>0.97873998805777995</v>
+      </c>
+      <c r="D35" s="5"/>
+      <c r="L35" s="2"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A36" s="4">
+        <f>ABS((C36-B36)*100/C36)</f>
+        <v>3.9301602210749095E-3</v>
+      </c>
+      <c r="B36" s="4">
+        <v>-0.97798514366149902</v>
+      </c>
+      <c r="C36" s="4">
+        <v>-0.97802358155525404</v>
+      </c>
+      <c r="D36" s="5"/>
+      <c r="L36" s="2"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A37" s="4">
+        <f>ABS((C37-B37)*100/C37)</f>
+        <v>5.7771171693713859E-3</v>
+      </c>
+      <c r="B37" s="4">
+        <v>0.97806090116500799</v>
+      </c>
+      <c r="C37" s="4">
+        <v>0.97811740815373105</v>
+      </c>
+      <c r="D37" s="5"/>
+      <c r="L37" s="2"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A38" s="4">
+        <f>ABS((C38-B38)*100/C38)</f>
+        <v>3.7940580431080793E-4</v>
+      </c>
+      <c r="B38" s="4">
+        <v>-0.97988981008529596</v>
+      </c>
+      <c r="C38" s="4">
+        <v>-0.97988609234058599</v>
+      </c>
+      <c r="D38" s="5"/>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A39" s="4">
+        <f>AVERAGE(A3:A38)</f>
+        <v>1.2873221583094806E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="D3:D11"/>
+    <mergeCell ref="D21:D29"/>
+    <mergeCell ref="D30:D38"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="D12:D20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FA87EEA-E4D3-4B3E-B4DC-756884BB361D}">
+  <dimension ref="A1:N29"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" zoomScale="69" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="I1" s="3" t="s">
+      <c r="D1" s="4"/>
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="1"/>
-      <c r="Q1" s="1" t="s">
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1" t="s">
+      <c r="K1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="W1" s="1"/>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="1">
+      <c r="B2" s="4">
         <v>-0.97761261463165205</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="I2" s="3" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
+      <c r="F2" s="4">
+        <v>0.97666269540786699</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0.47519403696060097</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="M2" s="2"/>
-      <c r="N2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.97960466146469105</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.97744923830032304</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0.47513532638549799</v>
+      </c>
+      <c r="L3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="1"/>
-      <c r="Q2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="W2" s="3"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="1">
-        <v>0.97960466146469105</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="I3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
       <c r="M3" s="2"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="Q3" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W3" s="3"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="1">
+      <c r="B4" s="4">
         <v>-0.97787392139434803</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="I4" s="4" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="F4" s="4">
+        <v>0.97652149200439398</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="1">
+      <c r="B5" s="4">
         <v>0.97906678915023804</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="I5" s="4" t="s">
+      <c r="C5" s="5"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="F5" s="4">
+        <v>0.97820919752120905</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
       <c r="J5" s="4"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="1">
+      <c r="B6" s="4">
         <v>0.97822630405426003</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="I6" s="4" t="s">
+      <c r="C6" s="5"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
+      <c r="F6" s="4">
+        <v>-0.97823780775070102</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>0</v>
+      </c>
       <c r="M6" s="2"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="Q6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="W6" s="1"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="1">
+      <c r="B7" s="4">
         <v>0.97872829437255804</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="I7" s="4" t="s">
+      <c r="C7" s="5"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
+      <c r="F7" s="4">
+        <v>0.97889220714569003</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0.47039383649826</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="M7" s="2"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="Q7" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="W7" s="3"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="1">
+      <c r="B8" s="4">
         <v>-0.97763967514037997</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="I8" s="4" t="s">
+      <c r="C8" s="5"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="4"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
+      <c r="F8" s="4">
+        <v>0.97774296998977595</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0.47114229202270502</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="M8" s="2"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="Q8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="W8" s="3"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="1">
+      <c r="B9" s="4">
         <v>0.97780519723892201</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="I9" s="4" t="s">
+      <c r="C9" s="5"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4" t="s">
         <v>22</v>
       </c>
+      <c r="F9" s="4">
+        <v>0.97962921857833796</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
       <c r="J9" s="4"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="1">
+      <c r="B10" s="4">
         <v>-0.97967910766601496</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="I10" s="4" t="s">
+      <c r="C10" s="5"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="F10" s="4">
+        <v>0.97846454381942705</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
       <c r="J10" s="4"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
+      <c r="L10" s="4"/>
+      <c r="N10" s="2"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="L11" s="2"/>
+      <c r="N11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="1" t="s">
+      <c r="B12" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1" t="s">
+      <c r="C12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G12" s="1"/>
-      <c r="I12" s="3" t="s">
+      <c r="D12" s="4"/>
+      <c r="E12" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="1" t="s">
+      <c r="F12" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1" t="s">
+      <c r="G12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O12" s="1"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="1">
+      <c r="B13" s="4">
         <v>-0.977783322334289</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1" t="s">
+      <c r="C13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="I13" s="3" t="s">
+      <c r="D13" s="4"/>
+      <c r="E13" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="J13" s="3"/>
-      <c r="K13" s="2"/>
+      <c r="F13" s="4">
+        <v>-0.977783322334289</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
-      <c r="N13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O13" s="1"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
+      <c r="N13" s="2"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="1">
+      <c r="B14" s="4">
         <v>0.97979640960693304</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="I14" s="3" t="s">
+      <c r="C14" s="5"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="J14" s="3"/>
-      <c r="K14" s="2"/>
+      <c r="F14" s="4">
+        <v>0.97979640960693304</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="N14" s="2"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="1">
+      <c r="B15" s="4">
         <v>-0.97835278511047297</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="I15" s="4" t="s">
+      <c r="C15" s="5"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="F15" s="4">
+        <v>-0.97835278511047297</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="N15" s="2"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="1">
+      <c r="B16" s="4">
         <v>0.97910463809966997</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="I16" s="4" t="s">
+      <c r="C16" s="5"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4" t="s">
         <v>37</v>
       </c>
+      <c r="F16" s="4">
+        <v>0.97910463809966997</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="N16" s="2"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="1">
+      <c r="B17" s="4">
         <v>0.97864580154418901</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="I17" s="4" t="s">
+      <c r="C17" s="5"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="F17" s="4">
+        <v>0.97864580154418901</v>
+      </c>
+      <c r="G17" s="5"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
       <c r="J17" s="4"/>
-      <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="N17" s="2"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="1">
+      <c r="B18" s="4">
         <v>0.97869694232940596</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="I18" s="4" t="s">
+      <c r="C18" s="5"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="F18" s="4">
+        <v>0.97869694232940596</v>
+      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="N18" s="2"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="1">
+      <c r="B19" s="4">
         <v>-0.97798514366149902</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="I19" s="4" t="s">
+      <c r="C19" s="5"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="F19" s="4">
+        <v>-0.97798514366149902</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="1">
+      <c r="B20" s="4">
         <v>0.97806090116500799</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="I20" s="4" t="s">
+      <c r="C20" s="5"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4" t="s">
         <v>41</v>
       </c>
+      <c r="F20" s="4">
+        <v>0.97806090116500799</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
       <c r="J20" s="4"/>
-      <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="1">
+      <c r="B21" s="4">
         <v>-0.97988981008529596</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="I21" s="4" t="s">
+      <c r="C21" s="5"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="F21" s="4">
+        <v>-0.97988981008529596</v>
+      </c>
+      <c r="G21" s="5"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
       <c r="J21" s="4"/>
-      <c r="K21" s="2"/>
       <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="L27" s="2"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="L28" s="2"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="L29" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="89">
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="S3:U3"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:U2"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:G21"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="F2:G10"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="N13:O21"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="N2:O10"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="C2:E2"/>
+  <mergeCells count="4">
+    <mergeCell ref="G2:G10"/>
+    <mergeCell ref="C2:C10"/>
+    <mergeCell ref="C13:C21"/>
+    <mergeCell ref="G13:G21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
